--- a/medicine/Enfance/Une_sombre_prophétie/Une_sombre_prophétie.xlsx
+++ b/medicine/Enfance/Une_sombre_prophétie/Une_sombre_prophétie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Une_sombre_proph%C3%A9tie</t>
+          <t>Une_sombre_prophétie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Une sombre prophétie (titre original : The Darkest Hour) est un roman d'Erin Hunter paru en 2004, le sixième tome de la série La Guerre des clans.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Une_sombre_proph%C3%A9tie</t>
+          <t>Une_sombre_prophétie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cœur de Feu est bouleversé par la mort d'Étoile Bleue, morte noyée, il devient alors le meneur du clan. Il se rend à la Pierre de Lune avec Museau Cendré et reçoit ses 9 vies : la première est donnée par Cœur de Lion, un de ses anciens mentors. Il lui donne la vie du courage. Plume Rousse, l'ancien lieutenant d'Étoile Bleue, lui donne la justice. Rivière d'Argent, la compagne de Plume Grise du Clan de la rivière, morte en donnant naissance à ses petits, lui donne la loyauté. Sa quatrième vie est celle de l'énergie infinie, elle est donnée par Vif-Argent, un ancien guerrier du Clan du Tonnerre. Plume Blanche, la mère adoptive de Flocon de Neige, lui offre la bienveillance. Nuage Agile, l'apprenti massacré par les chiens, lui donne le bon sens. Chacune de ses vies est une horrible souffrance pour Cœur de Feu qui accueille avec peine ses trois dernières vies : la première vient de Croc Jaune, sa chère vieille guérisseuse, qui lui donne la compassion. Sa chère et belle Petite Feuille lui donne l'amour. Sa neuvième et dernière vie est donnée par Étoile Bleue. Sa chef lui donne la noblesse, la certitude et la foi. Il reçoit alors son nouveau nom de chef : Étoile de Feu. Mais le rituel est interrompu quand Étoile Bleue lui annonce une prophétie à glacer le sang : Quatre deviendront Deux, Lion et Tigre s'affronteront au combat et le sang régnera sur la forêt. Rentré au camp, Étoile de Feu nomme Tornade Blanche lieutenant.
 À l'assemblée se passe quelque chose sans précédent : Étoile du Tigre propose une alliance aux Clans pour qu'ils n'en fassent plus qu'un seul : le Clan du Tigre. Le Clan de la Rivière accepte mais Étoile de Feu et Étoile Filante refusent. Plume Grise convainc Étoile de Feu d'aller vérifier si ses petits, Nuage d'Orage et Nuage de Plume, vont bien au Clan de la Rivière. Accompagnés de Nuage de Jais, ils vont au camp de la Rivière. Là ils découvrent quelque chose d'horrible : Étoile du Tigre en train d'exécuter Nuage d'Orage, Nuage de Plume et Pelage de Silex. En effet Étoile du Tigre les accusent ainsi que Patte de Brume de ne pas être loyaux. Patte Noire et Éclair Noir tuent alors Pelage de Silex qui s'est sacrifié pour les apprentis. Les trois compagnons récupèrent alors les prisonniers et ceux-ci rejoignent le Clan du Tonnerre. Étoile de Feu reçoit alors un appel du Clan du Vent : il s'est fait attaquer par le Clan du Tigre ! Le Clan du Tonnerre vient les aider mais c'est trop tard : le Clan du Vent s'est fait battre et Nuage d'Ajoncs, un ami d'Étoile de Feu, tué. Étoile de Feu et Étoile Filante forment une nouvelle alliance : le Clan du Lion. Le Clan du Lion part affronter le Clan du Tigre mais ils s'aperçoivent que celui-ci est renforcé par un nouveau clan : le Clan du Sang. Mais Étoile du Tigre se bat contre leur chef, Fléau, et se fait éventrer d'un simple coup de patte. Fléau annonce alors que la forêt est à lui et part avec son clan. Étoile de Feu et son clan se lance dans un entraînement intensif de trois jours. Le chat roux arrive à unir les quatre clans pour former un nouveau Clan du Lion destiné à battre le Clan du Sang.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Une_sombre_proph%C3%A9tie</t>
+          <t>Une_sombre_prophétie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,8 +561,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Clan du Tonnerre
-Chef : Étoile de Feu - mâle au beau pelage roux
+          <t>Clan du Tonnerre</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Chef : Étoile de Feu - mâle au beau pelage roux
 apprenti : Nuage Épineux
 Lieutenant : Tornade Blanche - grand chat blanc
 Guérisseuse : Museau Cendré - chatte gris foncé
@@ -580,9 +599,43 @@
 Petite Oreille : matou gris aux oreilles minuscules, doyen du Clan
 Un-Œil : chatte gris perle, presque sourde et aveugle, doyenne du Clan
 Plume Cendrée : femelle écaille, très jolie autrefois
-Perce-Neige : chatte crème mouchetée
-Clan de l'Ombre
-Chef : Étoile du Tigre - grand mâle brun tacheté aux griffes très longues, ancien lieutenant du Clan du Tonnerre
+Perce-Neige : chatte crème mouchetée</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Une_sombre_prophétie</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Une_sombre_proph%C3%A9tie</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Effectifs des Clans</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Clan de l'Ombre</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Chef : Étoile du Tigre - grand mâle brun tacheté aux griffes très longues, ancien lieutenant du Clan du Tonnerre
 Lieutenant : Patte Noire - grand matou blanc aux longues pattes noires de jais, ancien chat errant
 Guérisseur : Rhume des Foins - chat gris et blanc de petite taille
 Guerriers :
@@ -595,9 +648,43 @@
 Crocs Pointus : chat moucheté de très grande taille, ancien chat errant
 apprenti : Nuage Fauve
 Reine :
-Fleur de Pavot : chatte tachetée brun clair haute sur pattes`
-Clan du Vent
-Chef : Étoile Filante - mâle noir et blanc à la queue très longue
+Fleur de Pavot : chatte tachetée brun clair haute sur pattes`</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Une_sombre_prophétie</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Une_sombre_proph%C3%A9tie</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Effectifs des Clans</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Clan du Vent</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Chef : Étoile Filante - mâle noir et blanc à la queue très longue
 Lieutenant : Patte Folle - chat noir à la patte tordue
 Guérisseur : Écorce de Chêne - chat brun à la queue très courte
 Guerriers :
@@ -626,42 +713,112 @@
 Ventre Affamé : chat brun foncé
 Reines :
 Pelage de Mousse : reine écaille-de-tortue
-Reine-des-Prés : chatte blanc crème
-Clan du sang
-Chef : Fléau : petit chat noir doté d'une patte blanche`
-Lieutenant : Carcasse : énorme chat noir et blanc
-Divers
-Ficelle : gros chaton noir et blanc qui habite une maison à la lisière du bois
+Reine-des-Prés : chatte blanc crème</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Une_sombre_prophétie</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Une_sombre_proph%C3%A9tie</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Effectifs des Clans</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Clan du sang</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Chef : Fléau : petit chat noir doté d'une patte blanche`
+Lieutenant : Carcasse : énorme chat noir et blanc</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Une_sombre_prophétie</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Une_sombre_proph%C3%A9tie</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Effectifs des Clans</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Divers</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Ficelle : gros chaton noir et blanc qui habite une maison à la lisière du bois
 Gerboise : matou noir et blanc qui vit près d'une ferme, de l'autre coté de la forêt
 Nuage de Jais : petit matou noir très maigre avec une tache blanche sur la poitrine et une sur le bout de la queue, ancien apprenti du Clan du Tonnerre</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Une_sombre_proph%C3%A9tie</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Une_sombre_prophétie</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Une_sombre_proph%C3%A9tie</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Version française</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Le roman est traduit en langue française par Aude Carlier et publié en 2008. La version poche est sortie en 2010.
 </t>
